--- a/biology/Botanique/Orchis_à_un_bulbe/Orchis_à_un_bulbe.xlsx
+++ b/biology/Botanique/Orchis_à_un_bulbe/Orchis_à_un_bulbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herminium monorchis
 L’Orchis à un bulbe, ou Orchis musc ou Herminie des Alpes, (Herminium monorchis) est une espèce de plante herbacée vivace de la famille des Orchidacées des régions tempérées d'Europe et d'Asie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante de 10 à 30 cm, aux fleurs jaune verdâtre, dont le lobe médian du labelle est étroit et allongé, les deux latéraux plus courts.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison s'étale de mai à juillet.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se trouve de la France (sauf régions atlantiques - Normandie, Picardie et Boulonnais exceptés - et méditerranéennes) jusqu'au sud de la Norvège et de la Suède, en Europe centrale et en Europe de l'Est, jusqu'en Asie médiane.
-Elle est signalée rare dans le Boulonnais, très rare ou disparue, en régression dans le territoire de la flore de Belgique et des régions voisines[1].
+Elle est signalée rare dans le Boulonnais, très rare ou disparue, en régression dans le territoire de la flore de Belgique et des régions voisines.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante se rencontre sur les pelouses sèches ou humides, sur des sols calcarifères, sur des sols sableux.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Orchis_%C3%A0_un_bulbe</t>
+          <t>Orchis_à_un_bulbe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Alsace, en Basse-Normandie, dans le Centre, en Champagne-Ardenne, en Franche-Comté, en Haute-Normandie, en Île-de-France (présence sur le liste rouge régionale), en Lorraine, dans le Nord-Pas-de-Calais (présence sur la liste rouge régionale) et en Picardie.
 </t>
